--- a/points_marquants/points_marquants_janv_25_clean.xlsx
+++ b/points_marquants/points_marquants_janv_25_clean.xlsx
@@ -797,7 +797,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7:47</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:13</t>
+          <t>05:13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9:11</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
